--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="511" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C260517-CB89-4B49-968C-8760D2FEEFAF}"/>
+  <xr:revisionPtr revIDLastSave="666" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86F5BB38-1E05-4E41-BD27-AC1513F2230C}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="442" windowWidth="18143" windowHeight="13065" firstSheet="3" activeTab="5" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="8888" yWindow="997" windowWidth="12862" windowHeight="12533" firstSheet="3" activeTab="5" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="109">
   <si>
     <t>County</t>
   </si>
@@ -312,9 +312,6 @@
     <t>March 26, 2020 9:30PM</t>
   </si>
   <si>
-    <t>March 27, 2020 9:30PM</t>
-  </si>
-  <si>
     <t>March 27, 2020 2:00PM</t>
   </si>
   <si>
@@ -345,13 +342,37 @@
     <t>March 25, 2020 10:00AM</t>
   </si>
   <si>
-    <t>March 27, 2020 9:00AM</t>
-  </si>
-  <si>
     <t>March 26, 2020 5:00PM</t>
   </si>
   <si>
     <t>March 27, 2020 10:00AM</t>
+  </si>
+  <si>
+    <t>March 28, 2020 10:00AM</t>
+  </si>
+  <si>
+    <t>March 28, 2020 9:00AM</t>
+  </si>
+  <si>
+    <t>March 27, 2020 4:00PM</t>
+  </si>
+  <si>
+    <t>Cattaraugus</t>
+  </si>
+  <si>
+    <t>Schuyler</t>
+  </si>
+  <si>
+    <t>March 28, 2020 3:00PM</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>March 29, 2020 4:00PM</t>
+  </si>
+  <si>
+    <t>March 29, 2020 10:00AM</t>
   </si>
 </sst>
 </file>
@@ -825,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C601"/>
+  <dimension ref="A1:C712"/>
   <sheetViews>
-    <sheetView topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602"/>
+    <sheetView topLeftCell="A690" workbookViewId="0">
+      <selection activeCell="D712" sqref="D712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6874,7 +6895,7 @@
         <v>187</v>
       </c>
       <c r="C549" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.45">
@@ -6885,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="C550" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.45">
@@ -6896,7 +6917,7 @@
         <v>18</v>
       </c>
       <c r="C551" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.45">
@@ -6907,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="C552" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.45">
@@ -6918,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="C553" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.45">
@@ -6929,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="C554" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.45">
@@ -6940,7 +6961,7 @@
         <v>4</v>
       </c>
       <c r="C555" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.45">
@@ -6951,7 +6972,7 @@
         <v>11</v>
       </c>
       <c r="C556" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.45">
@@ -6962,7 +6983,7 @@
         <v>20</v>
       </c>
       <c r="C557" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.45">
@@ -6973,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="C558" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.45">
@@ -6984,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="C559" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.45">
@@ -6995,7 +7016,7 @@
         <v>225</v>
       </c>
       <c r="C560" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.45">
@@ -7006,7 +7027,7 @@
         <v>219</v>
       </c>
       <c r="C561" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.45">
@@ -7017,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="C562" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.45">
@@ -7028,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="C563" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.45">
@@ -7039,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="C564" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.45">
@@ -7050,7 +7071,7 @@
         <v>6</v>
       </c>
       <c r="C565" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.45">
@@ -7061,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="C566" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.45">
@@ -7072,7 +7093,7 @@
         <v>2</v>
       </c>
       <c r="C567" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.45">
@@ -7083,7 +7104,7 @@
         <v>9</v>
       </c>
       <c r="C568" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.45">
@@ -7094,7 +7115,7 @@
         <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.45">
@@ -7105,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="C570" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.45">
@@ -7116,7 +7137,7 @@
         <v>17</v>
       </c>
       <c r="C571" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.45">
@@ -7127,7 +7148,7 @@
         <v>160</v>
       </c>
       <c r="C572" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.45">
@@ -7138,7 +7159,7 @@
         <v>5</v>
       </c>
       <c r="C573" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.45">
@@ -7149,7 +7170,7 @@
         <v>4657</v>
       </c>
       <c r="C574" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.45">
@@ -7160,7 +7181,7 @@
         <v>23</v>
       </c>
       <c r="C575" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.45">
@@ -7171,7 +7192,7 @@
         <v>25398</v>
       </c>
       <c r="C576" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.45">
@@ -7182,7 +7203,7 @@
         <v>13</v>
       </c>
       <c r="C577" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.45">
@@ -7193,7 +7214,7 @@
         <v>115</v>
       </c>
       <c r="C578" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.45">
@@ -7204,7 +7225,7 @@
         <v>14</v>
       </c>
       <c r="C579" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.45">
@@ -7215,7 +7236,7 @@
         <v>910</v>
       </c>
       <c r="C580" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.45">
@@ -7226,7 +7247,7 @@
         <v>3</v>
       </c>
       <c r="C581" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.45">
@@ -7237,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="C582" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.45">
@@ -7248,7 +7269,7 @@
         <v>5</v>
       </c>
       <c r="C583" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.45">
@@ -7259,7 +7280,7 @@
         <v>111</v>
       </c>
       <c r="C584" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.45">
@@ -7270,7 +7291,7 @@
         <v>35</v>
       </c>
       <c r="C585" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.45">
@@ -7281,7 +7302,7 @@
         <v>1457</v>
       </c>
       <c r="C586" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.45">
@@ -7292,7 +7313,7 @@
         <v>82</v>
       </c>
       <c r="C587" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.45">
@@ -7303,7 +7324,7 @@
         <v>66</v>
       </c>
       <c r="C588" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.45">
@@ -7314,7 +7335,7 @@
         <v>3</v>
       </c>
       <c r="C589" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.45">
@@ -7325,7 +7346,7 @@
         <v>3</v>
       </c>
       <c r="C590" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.45">
@@ -7336,7 +7357,7 @@
         <v>12</v>
       </c>
       <c r="C591" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.45">
@@ -7347,7 +7368,7 @@
         <v>3385</v>
       </c>
       <c r="C592" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.45">
@@ -7358,7 +7379,7 @@
         <v>64</v>
       </c>
       <c r="C593" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.45">
@@ -7369,7 +7390,7 @@
         <v>2</v>
       </c>
       <c r="C594" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.45">
@@ -7380,7 +7401,7 @@
         <v>26</v>
       </c>
       <c r="C595" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.45">
@@ -7391,7 +7412,7 @@
         <v>98</v>
       </c>
       <c r="C596" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.45">
@@ -7402,7 +7423,7 @@
         <v>8</v>
       </c>
       <c r="C597" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.45">
@@ -7413,7 +7434,7 @@
         <v>6</v>
       </c>
       <c r="C598" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.45">
@@ -7424,7 +7445,7 @@
         <v>11</v>
       </c>
       <c r="C599" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.45">
@@ -7435,7 +7456,7 @@
         <v>7187</v>
       </c>
       <c r="C600" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.45">
@@ -7446,7 +7467,1228 @@
         <v>7</v>
       </c>
       <c r="C601" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A602" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B602" s="14">
+        <v>195</v>
+      </c>
+      <c r="C602" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A603" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B603" s="15">
+        <v>2</v>
+      </c>
+      <c r="C603" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A604" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B604" s="14">
+        <v>23</v>
+      </c>
+      <c r="C604" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A605" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B605" s="15">
+        <v>1</v>
+      </c>
+      <c r="C605" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A606" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B606" s="14">
+        <v>2</v>
+      </c>
+      <c r="C606" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A607" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B607" s="15">
+        <v>5</v>
+      </c>
+      <c r="C607" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A608" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B608" s="14">
+        <v>12</v>
+      </c>
+      <c r="C608" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A609" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B609" s="15">
+        <v>8</v>
+      </c>
+      <c r="C609" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A610" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B610" s="14">
+        <v>12</v>
+      </c>
+      <c r="C610" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A611" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B611" s="15">
+        <v>22</v>
+      </c>
+      <c r="C611" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A612" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B612" s="14">
+        <v>5</v>
+      </c>
+      <c r="C612" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A613" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B613" s="15">
+        <v>8</v>
+      </c>
+      <c r="C613" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A614" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B614" s="14">
+        <v>262</v>
+      </c>
+      <c r="C614" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A615" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B615" s="15">
+        <v>318</v>
+      </c>
+      <c r="C615" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A616" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B616" s="14">
+        <v>4</v>
+      </c>
+      <c r="C616" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A617" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B617" s="15">
+        <v>4</v>
+      </c>
+      <c r="C617" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A618" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B618" s="14">
+        <v>1</v>
+      </c>
+      <c r="C618" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A619" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B619" s="15">
+        <v>7</v>
+      </c>
+      <c r="C619" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A620" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B620" s="14">
+        <v>7</v>
+      </c>
+      <c r="C620" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A621" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B621" s="15">
+        <v>2</v>
+      </c>
+      <c r="C621" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A622" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B622" s="14">
+        <v>9</v>
+      </c>
+      <c r="C622" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A623" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B623" s="15">
+        <v>6</v>
+      </c>
+      <c r="C623" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A624" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B624" s="14">
+        <v>5</v>
+      </c>
+      <c r="C624" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A625" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B625" s="15">
+        <v>19</v>
+      </c>
+      <c r="C625" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A626" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B626" s="14">
+        <v>192</v>
+      </c>
+      <c r="C626" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A627" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B627" s="15">
+        <v>5</v>
+      </c>
+      <c r="C627" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A628" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B628" s="17">
+        <v>5537</v>
+      </c>
+      <c r="C628" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A629" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B629" s="15">
+        <v>33</v>
+      </c>
+      <c r="C629" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A630" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B630" s="17">
+        <v>29766</v>
+      </c>
+      <c r="C630" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A631" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B631" s="15">
+        <v>23</v>
+      </c>
+      <c r="C631" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A632" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B632" s="14">
+        <v>129</v>
+      </c>
+      <c r="C632" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A633" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B633" s="15">
+        <v>16</v>
+      </c>
+      <c r="C633" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A634" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" s="17">
+        <v>1101</v>
+      </c>
+      <c r="C634" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A635" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B635" s="15">
+        <v>3</v>
+      </c>
+      <c r="C635" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A636" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B636" s="14">
+        <v>7</v>
+      </c>
+      <c r="C636" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A637" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B637" s="15">
+        <v>7</v>
+      </c>
+      <c r="C637" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A638" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B638" s="14">
+        <v>131</v>
+      </c>
+      <c r="C638" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A639" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B639" s="15">
+        <v>38</v>
+      </c>
+      <c r="C639" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A640" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B640" s="17">
+        <v>1896</v>
+      </c>
+      <c r="C640" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A641" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B641" s="15">
+        <v>96</v>
+      </c>
+      <c r="C641" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A642" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B642" s="14">
+        <v>72</v>
+      </c>
+      <c r="C642" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A643" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B643" s="15">
+        <v>5</v>
+      </c>
+      <c r="C643" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A644" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B644" s="14">
+        <v>1</v>
+      </c>
+      <c r="C644" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A645" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B645" s="15">
+        <v>8</v>
+      </c>
+      <c r="C645" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A646" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B646" s="14">
+        <v>13</v>
+      </c>
+      <c r="C646" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A647" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B647" s="16">
+        <v>4138</v>
+      </c>
+      <c r="C647" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A648" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B648" s="14">
+        <v>72</v>
+      </c>
+      <c r="C648" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A649" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B649" s="15">
+        <v>4</v>
+      </c>
+      <c r="C649" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A650" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B650" s="14">
+        <v>45</v>
+      </c>
+      <c r="C650" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A651" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B651" s="15">
+        <v>128</v>
+      </c>
+      <c r="C651" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A652" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B652" s="14">
+        <v>13</v>
+      </c>
+      <c r="C652" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A653" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B653" s="15">
+        <v>6</v>
+      </c>
+      <c r="C653" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A654" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="14">
+        <v>12</v>
+      </c>
+      <c r="C654" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A655" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B655" s="16">
+        <v>7875</v>
+      </c>
+      <c r="C655" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A656" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B656" s="14">
+        <v>7</v>
+      </c>
+      <c r="C656" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A657" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B657" s="14">
+        <v>205</v>
+      </c>
+      <c r="C657" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A658" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B658" s="15">
+        <v>6</v>
+      </c>
+      <c r="C658" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A659" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B659" s="14">
+        <v>29</v>
+      </c>
+      <c r="C659" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A660" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B660" s="15">
+        <v>4</v>
+      </c>
+      <c r="C660" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A661" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B661" s="14">
+        <v>2</v>
+      </c>
+      <c r="C661" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A662" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B662" s="15">
+        <v>5</v>
+      </c>
+      <c r="C662" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A663" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B663" s="14">
+        <v>15</v>
+      </c>
+      <c r="C663" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A664" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B664" s="15">
+        <v>15</v>
+      </c>
+      <c r="C664" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A665" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B665" s="14">
+        <v>13</v>
+      </c>
+      <c r="C665" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A666" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B666" s="15">
+        <v>23</v>
+      </c>
+      <c r="C666" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A667" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B667" s="14">
+        <v>6</v>
+      </c>
+      <c r="C667" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A668" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B668" s="15">
+        <v>8</v>
+      </c>
+      <c r="C668" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A669" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B669" s="14">
+        <v>320</v>
+      </c>
+      <c r="C669" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A670" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670" s="15">
+        <v>358</v>
+      </c>
+      <c r="C670" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A671" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B671" s="14">
+        <v>4</v>
+      </c>
+      <c r="C671" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A672" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B672" s="15">
+        <v>6</v>
+      </c>
+      <c r="C672" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A673" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B673" s="14">
+        <v>1</v>
+      </c>
+      <c r="C673" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A674" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B674" s="15">
+        <v>9</v>
+      </c>
+      <c r="C674" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A675" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B675" s="14">
+        <v>7</v>
+      </c>
+      <c r="C675" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A676" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B676" s="15">
+        <v>2</v>
+      </c>
+      <c r="C676" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A677" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B677" s="14">
+        <v>10</v>
+      </c>
+      <c r="C677" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A678" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B678" s="15">
+        <v>7</v>
+      </c>
+      <c r="C678" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A679" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B679" s="14">
+        <v>2</v>
+      </c>
+      <c r="C679" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A680" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B680" s="15">
+        <v>10</v>
+      </c>
+      <c r="C680" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A681" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B681" s="14">
+        <v>24</v>
+      </c>
+      <c r="C681" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A682" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="15">
+        <v>219</v>
+      </c>
+      <c r="C682" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A683" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B683" s="14">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A684" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B684" s="16">
+        <v>6445</v>
+      </c>
+      <c r="C684" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A685" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B685" s="14">
+        <v>38</v>
+      </c>
+      <c r="C685" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A686" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B686" s="16">
+        <v>33768</v>
+      </c>
+      <c r="C686" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A687" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B687" s="14">
+        <v>26</v>
+      </c>
+      <c r="C687" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A688" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B688" s="15">
+        <v>152</v>
+      </c>
+      <c r="C688" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A689" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B689" s="14">
+        <v>18</v>
+      </c>
+      <c r="C689" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A690" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B690" s="16">
+        <v>1247</v>
+      </c>
+      <c r="C690" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A691" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B691" s="14">
+        <v>3</v>
+      </c>
+      <c r="C691" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A692" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B692" s="15">
+        <v>8</v>
+      </c>
+      <c r="C692" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A693" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B693" s="14">
+        <v>10</v>
+      </c>
+      <c r="C693" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A694" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B694" s="15">
+        <v>144</v>
+      </c>
+      <c r="C694" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A695" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B695" s="14">
+        <v>39</v>
+      </c>
+      <c r="C695" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A696" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B696" s="16">
+        <v>2209</v>
+      </c>
+      <c r="C696" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A697" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B697" s="14">
+        <v>102</v>
+      </c>
+      <c r="C697" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A698" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B698" s="15">
+        <v>76</v>
+      </c>
+      <c r="C698" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A699" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B699" s="14">
+        <v>5</v>
+      </c>
+      <c r="C699" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A700" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B700" s="15">
+        <v>1</v>
+      </c>
+      <c r="C700" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A701" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B701" s="14">
+        <v>12</v>
+      </c>
+      <c r="C701" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A702" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B702" s="15">
+        <v>17</v>
+      </c>
+      <c r="C702" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A703" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B703" s="17">
+        <v>5023</v>
+      </c>
+      <c r="C703" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A704" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B704" s="15">
+        <v>88</v>
+      </c>
+      <c r="C704" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A705" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B705" s="14">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A706" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B706" s="15">
+        <v>52</v>
+      </c>
+      <c r="C706" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A707" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B707" s="14">
+        <v>146</v>
+      </c>
+      <c r="C707" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A708" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B708" s="15">
+        <v>18</v>
+      </c>
+      <c r="C708" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A709" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B709" s="14">
+        <v>7</v>
+      </c>
+      <c r="C709" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A710" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B710" s="15">
+        <v>12</v>
+      </c>
+      <c r="C710" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A711" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B711" s="17">
+        <v>8519</v>
+      </c>
+      <c r="C711" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A712" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B712" s="15">
+        <v>8</v>
+      </c>
+      <c r="C712" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8186,10 +9428,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8208,10 +9451,10 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -8504,13 +9747,16 @@
         <v>62</v>
       </c>
       <c r="B26">
-        <v>4655</v>
+        <v>4880</v>
+      </c>
+      <c r="C26">
+        <v>1200</v>
       </c>
       <c r="D26">
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -8518,13 +9764,16 @@
         <v>63</v>
       </c>
       <c r="B27">
-        <v>6750</v>
+        <v>7091</v>
+      </c>
+      <c r="C27">
+        <v>989</v>
       </c>
       <c r="D27">
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -8532,13 +9781,16 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>4478</v>
+        <v>4627</v>
+      </c>
+      <c r="C28">
+        <v>709</v>
       </c>
       <c r="D28">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -8546,13 +9798,16 @@
         <v>65</v>
       </c>
       <c r="B29">
-        <v>8214</v>
+        <v>8529</v>
+      </c>
+      <c r="C29">
+        <v>1810</v>
       </c>
       <c r="D29">
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -8560,13 +9815,16 @@
         <v>72</v>
       </c>
       <c r="B30">
-        <v>1440</v>
+        <v>1534</v>
+      </c>
+      <c r="C30">
+        <v>321</v>
       </c>
       <c r="D30">
         <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -8576,8 +9834,194 @@
       <c r="B31">
         <v>36</v>
       </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>5352</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <v>7789</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>5036</v>
+      </c>
+      <c r="D34">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>9228</v>
+      </c>
+      <c r="D35">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>1718</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>6250</v>
+      </c>
+      <c r="C38">
+        <v>1729</v>
+      </c>
+      <c r="D38">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>8887</v>
+      </c>
+      <c r="C39">
+        <v>1617</v>
+      </c>
+      <c r="D39">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>5582</v>
+      </c>
+      <c r="C40">
+        <v>1074</v>
+      </c>
+      <c r="D40">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>10737</v>
+      </c>
+      <c r="C41">
+        <v>2536</v>
+      </c>
+      <c r="D41">
+        <v>219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>1984</v>
+      </c>
+      <c r="C42">
+        <v>444</v>
+      </c>
+      <c r="D42">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8588,10 +10032,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8610,10 +10055,10 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -8627,51 +10072,51 @@
         <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>5704</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>4069</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1308</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>930</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -8682,7 +10127,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -8693,51 +10138,51 @@
         <v>374</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>6786</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>4906</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>1591</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12">
         <v>1109</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -8748,7 +10193,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -8759,51 +10204,51 @@
         <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>8880</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>6786</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>2226</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>1633</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -8814,7 +10259,7 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -8828,12 +10273,12 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>10145</v>
@@ -8842,12 +10287,12 @@
         <v>950</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>7869</v>
@@ -8856,12 +10301,12 @@
         <v>1749</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>2627</v>
@@ -8870,12 +10315,12 @@
         <v>946</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>1935</v>
@@ -8884,7 +10329,7 @@
         <v>1029</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -8898,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -8906,69 +10351,84 @@
         <v>74</v>
       </c>
       <c r="B26">
-        <v>524</v>
+        <v>543</v>
+      </c>
+      <c r="C26">
+        <v>47</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>11202</v>
+        <v>11617</v>
+      </c>
+      <c r="C27">
+        <v>971</v>
       </c>
       <c r="D27">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>8745</v>
+        <v>9158</v>
+      </c>
+      <c r="C28">
+        <v>1886</v>
       </c>
       <c r="D28">
         <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29">
-        <v>2894</v>
+        <v>3034</v>
+      </c>
+      <c r="C29">
+        <v>1032</v>
       </c>
       <c r="D29">
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>2141</v>
+        <v>2286</v>
+      </c>
+      <c r="C30">
+        <v>1103</v>
       </c>
       <c r="D30">
         <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -8978,8 +10438,191 @@
       <c r="B31">
         <v>67</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>573</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>12590</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>10019</v>
+      </c>
+      <c r="D34">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>3354</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>2568</v>
+      </c>
+      <c r="D36">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>619</v>
+      </c>
+      <c r="C38">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>14233</v>
+      </c>
+      <c r="C39">
+        <v>1459</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>11577</v>
+      </c>
+      <c r="C40">
+        <v>2765</v>
+      </c>
+      <c r="D40">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41">
+        <v>3954</v>
+      </c>
+      <c r="C41">
+        <v>1499</v>
+      </c>
+      <c r="D41">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>3020</v>
+      </c>
+      <c r="C42">
+        <v>1620</v>
+      </c>
+      <c r="D42">
+        <v>324</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8990,10 +10633,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9012,10 +10656,10 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -9062,7 +10706,7 @@
         <v>5255</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -9073,7 +10717,7 @@
         <v>7097</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -9084,7 +10728,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -9095,7 +10739,7 @@
         <v>6374</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -9106,7 +10750,7 @@
         <v>8379</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -9117,7 +10761,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -9128,7 +10772,7 @@
         <v>8655</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -9139,7 +10783,7 @@
         <v>11325</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -9150,7 +10794,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -9164,7 +10808,7 @@
         <v>1918</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -9178,7 +10822,7 @@
         <v>2801</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -9192,7 +10836,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -9206,7 +10850,7 @@
         <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -9220,7 +10864,7 @@
         <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -9231,7 +10875,94 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>12928</v>
+      </c>
+      <c r="D20">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>16192</v>
+      </c>
+      <c r="D21">
+        <v>311</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>14837</v>
+      </c>
+      <c r="C23">
+        <v>3001</v>
+      </c>
+      <c r="D23">
+        <v>264</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>18593</v>
+      </c>
+      <c r="C24">
+        <v>4408</v>
+      </c>
+      <c r="D24">
+        <v>414</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="666" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86F5BB38-1E05-4E41-BD27-AC1513F2230C}"/>
+  <xr:revisionPtr revIDLastSave="729" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D17E71D-5F02-4E0F-97B6-0CCC828156BA}"/>
   <bookViews>
-    <workbookView xWindow="8888" yWindow="997" windowWidth="12862" windowHeight="12533" firstSheet="3" activeTab="5" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="3548" yWindow="653" windowWidth="16875" windowHeight="10522" firstSheet="2" activeTab="5" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="111">
   <si>
     <t>County</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>March 29, 2020 10:00AM</t>
+  </si>
+  <si>
+    <t>March 30, 2020 4:00PM</t>
+  </si>
+  <si>
+    <t>March 30, 2020 5:00PM</t>
   </si>
 </sst>
 </file>
@@ -846,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C712"/>
+  <dimension ref="A1:C768"/>
   <sheetViews>
-    <sheetView topLeftCell="A690" workbookViewId="0">
-      <selection activeCell="D712" sqref="D712"/>
+    <sheetView topLeftCell="A748" workbookViewId="0">
+      <selection activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8689,6 +8695,622 @@
       </c>
       <c r="C712" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A713" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B713" s="14">
+        <v>217</v>
+      </c>
+      <c r="C713" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A714" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B714" s="15">
+        <v>7</v>
+      </c>
+      <c r="C714" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A715" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B715" s="14">
+        <v>35</v>
+      </c>
+      <c r="C715" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A716" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B716" s="15">
+        <v>6</v>
+      </c>
+      <c r="C716" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A717" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B717" s="14">
+        <v>3</v>
+      </c>
+      <c r="C717" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A718" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B718" s="15">
+        <v>5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A719" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B719" s="14">
+        <v>15</v>
+      </c>
+      <c r="C719" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A720" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B720" s="15">
+        <v>17</v>
+      </c>
+      <c r="C720" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A721" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B721" s="14">
+        <v>17</v>
+      </c>
+      <c r="C721" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A722" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B722" s="15">
+        <v>26</v>
+      </c>
+      <c r="C722" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A723" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B723" s="14">
+        <v>8</v>
+      </c>
+      <c r="C723" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A724" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B724" s="15">
+        <v>11</v>
+      </c>
+      <c r="C724" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A725" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B725" s="14">
+        <v>392</v>
+      </c>
+      <c r="C725" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A726" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B726" s="15">
+        <v>376</v>
+      </c>
+      <c r="C726" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A727" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B727" s="14">
+        <v>4</v>
+      </c>
+      <c r="C727" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A728" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B728" s="15">
+        <v>6</v>
+      </c>
+      <c r="C728" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A729" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B729" s="14">
+        <v>1</v>
+      </c>
+      <c r="C729" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A730" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B730" s="15">
+        <v>9</v>
+      </c>
+      <c r="C730" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A731" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B731" s="14">
+        <v>10</v>
+      </c>
+      <c r="C731" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A732" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B732" s="15">
+        <v>2</v>
+      </c>
+      <c r="C732" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A733" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B733" s="14">
+        <v>12</v>
+      </c>
+      <c r="C733" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A734" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B734" s="15">
+        <v>11</v>
+      </c>
+      <c r="C734" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A735" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B735" s="14">
+        <v>2</v>
+      </c>
+      <c r="C735" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A736" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B736" s="15">
+        <v>12</v>
+      </c>
+      <c r="C736" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A737" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B737" s="14">
+        <v>34</v>
+      </c>
+      <c r="C737" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A738" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B738" s="15">
+        <v>242</v>
+      </c>
+      <c r="C738" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A739" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B739" s="14">
+        <v>6</v>
+      </c>
+      <c r="C739" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A740" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B740" s="16">
+        <v>7344</v>
+      </c>
+      <c r="C740" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A741" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B741" s="14">
+        <v>41</v>
+      </c>
+      <c r="C741" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A742" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B742" s="16">
+        <v>37453</v>
+      </c>
+      <c r="C742" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A743" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B743" s="14">
+        <v>34</v>
+      </c>
+      <c r="C743" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A744" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B744" s="15">
+        <v>180</v>
+      </c>
+      <c r="C744" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A745" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B745" s="14">
+        <v>20</v>
+      </c>
+      <c r="C745" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A746" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B746" s="16">
+        <v>1435</v>
+      </c>
+      <c r="C746" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A747" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B747" s="14">
+        <v>4</v>
+      </c>
+      <c r="C747" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A748" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B748" s="15">
+        <v>14</v>
+      </c>
+      <c r="C748" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A749" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B749" s="14">
+        <v>17</v>
+      </c>
+      <c r="C749" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A750" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B750" s="15">
+        <v>167</v>
+      </c>
+      <c r="C750" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A751" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B751" s="14">
+        <v>40</v>
+      </c>
+      <c r="C751" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A752" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B752" s="16">
+        <v>2511</v>
+      </c>
+      <c r="C752" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A753" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B753" s="14">
+        <v>105</v>
+      </c>
+      <c r="C753" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A754" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B754" s="15">
+        <v>80</v>
+      </c>
+      <c r="C754" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A755" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B755" s="14">
+        <v>6</v>
+      </c>
+      <c r="C755" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A756" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B756" s="15">
+        <v>2</v>
+      </c>
+      <c r="C756" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A757" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B757" s="14">
+        <v>13</v>
+      </c>
+      <c r="C757" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A758" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B758" s="15">
+        <v>19</v>
+      </c>
+      <c r="C758" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A759" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B759" s="17">
+        <v>5791</v>
+      </c>
+      <c r="C759" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A760" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B760" s="15">
+        <v>101</v>
+      </c>
+      <c r="C760" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A761" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B761" s="14">
+        <v>4</v>
+      </c>
+      <c r="C761" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A762" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B762" s="15">
+        <v>66</v>
+      </c>
+      <c r="C762" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A763" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B763" s="14">
+        <v>190</v>
+      </c>
+      <c r="C763" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A764" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B764" s="15">
+        <v>18</v>
+      </c>
+      <c r="C764" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A765" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B765" s="14">
+        <v>7</v>
+      </c>
+      <c r="C765" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A766" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B766" s="15">
+        <v>15</v>
+      </c>
+      <c r="C766" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A767" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B767" s="17">
+        <v>9326</v>
+      </c>
+      <c r="C767" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A768" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B768" s="15">
+        <v>8</v>
+      </c>
+      <c r="C768" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9428,11 +10050,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10024,6 +10646,108 @@
         <v>108</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44">
+        <v>6925</v>
+      </c>
+      <c r="C44">
+        <v>1880</v>
+      </c>
+      <c r="D44">
+        <v>215</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>10171</v>
+      </c>
+      <c r="C45">
+        <v>1661</v>
+      </c>
+      <c r="D45">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46">
+        <v>6060</v>
+      </c>
+      <c r="C46">
+        <v>1075</v>
+      </c>
+      <c r="D46">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <v>12756</v>
+      </c>
+      <c r="C47">
+        <v>2650</v>
+      </c>
+      <c r="D47">
+        <v>305</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>2140</v>
+      </c>
+      <c r="C48">
+        <v>465</v>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -10032,11 +10756,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10621,8 +11345,110 @@
       <c r="B43">
         <v>71</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
       <c r="E43" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <v>714</v>
+      </c>
+      <c r="C44">
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>16028</v>
+      </c>
+      <c r="C45">
+        <v>1448</v>
+      </c>
+      <c r="D45">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>13344</v>
+      </c>
+      <c r="C46">
+        <v>2887</v>
+      </c>
+      <c r="D46">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
+        <v>4496</v>
+      </c>
+      <c r="C47">
+        <v>1612</v>
+      </c>
+      <c r="D47">
+        <v>215</v>
+      </c>
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>3410</v>
+      </c>
+      <c r="C48">
+        <v>1722</v>
+      </c>
+      <c r="D48">
+        <v>428</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -10633,11 +11459,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10963,6 +11789,57 @@
       </c>
       <c r="E25" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>16920</v>
+      </c>
+      <c r="C26">
+        <v>3130</v>
+      </c>
+      <c r="D26">
+        <v>334</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>21120</v>
+      </c>
+      <c r="C27">
+        <v>4610</v>
+      </c>
+      <c r="D27">
+        <v>569</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="729" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D17E71D-5F02-4E0F-97B6-0CCC828156BA}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C69BFDE7-8AF7-42FB-B58A-6A9347DF8CC7}"/>
   <bookViews>
-    <workbookView xWindow="3548" yWindow="653" windowWidth="16875" windowHeight="10522" firstSheet="2" activeTab="5" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="1943" yWindow="308" windowWidth="19754" windowHeight="13935" firstSheet="2" activeTab="3" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="115">
   <si>
     <t>County</t>
   </si>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>March 30, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>Seneca</t>
+  </si>
+  <si>
+    <t>March 31, 2020 4:00PM</t>
+  </si>
+  <si>
+    <t>March 31, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>March 28, 2020 5:00PM</t>
   </si>
 </sst>
 </file>
@@ -852,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C768"/>
+  <dimension ref="A1:C825"/>
   <sheetViews>
-    <sheetView topLeftCell="A748" workbookViewId="0">
-      <selection activeCell="D768" sqref="D768"/>
+    <sheetView topLeftCell="A812" workbookViewId="0">
+      <selection activeCell="D825" sqref="D825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9311,6 +9323,633 @@
       </c>
       <c r="C768" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A769" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B769" s="14">
+        <v>226</v>
+      </c>
+      <c r="C769" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A770" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B770" s="15">
+        <v>7</v>
+      </c>
+      <c r="C770" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A771" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B771" s="14">
+        <v>38</v>
+      </c>
+      <c r="C771" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A772" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B772" s="15">
+        <v>6</v>
+      </c>
+      <c r="C772" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A773" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B773" s="14">
+        <v>3</v>
+      </c>
+      <c r="C773" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A774" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B774" s="15">
+        <v>6</v>
+      </c>
+      <c r="C774" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A775" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B775" s="14">
+        <v>20</v>
+      </c>
+      <c r="C775" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A776" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B776" s="15">
+        <v>19</v>
+      </c>
+      <c r="C776" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A777" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B777" s="14">
+        <v>21</v>
+      </c>
+      <c r="C777" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A778" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B778" s="15">
+        <v>30</v>
+      </c>
+      <c r="C778" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A779" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B779" s="14">
+        <v>8</v>
+      </c>
+      <c r="C779" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A780" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B780" s="15">
+        <v>16</v>
+      </c>
+      <c r="C780" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A781" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B781" s="14">
+        <v>484</v>
+      </c>
+      <c r="C781" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A782" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B782" s="15">
+        <v>438</v>
+      </c>
+      <c r="C782" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A783" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B783" s="14">
+        <v>4</v>
+      </c>
+      <c r="C783" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A784" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B784" s="15">
+        <v>9</v>
+      </c>
+      <c r="C784" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A785" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B785" s="14">
+        <v>1</v>
+      </c>
+      <c r="C785" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A786" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B786" s="15">
+        <v>10</v>
+      </c>
+      <c r="C786" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A787" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B787" s="14">
+        <v>16</v>
+      </c>
+      <c r="C787" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A788" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B788" s="15">
+        <v>2</v>
+      </c>
+      <c r="C788" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A789" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B789" s="14">
+        <v>12</v>
+      </c>
+      <c r="C789" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A790" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B790" s="15">
+        <v>12</v>
+      </c>
+      <c r="C790" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A791" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B791" s="14">
+        <v>2</v>
+      </c>
+      <c r="C791" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A792" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B792" s="15">
+        <v>13</v>
+      </c>
+      <c r="C792" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A793" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B793" s="14">
+        <v>41</v>
+      </c>
+      <c r="C793" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A794" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B794" s="15">
+        <v>292</v>
+      </c>
+      <c r="C794" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A795" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B795" s="14">
+        <v>7</v>
+      </c>
+      <c r="C795" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A796" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B796" s="16">
+        <v>8544</v>
+      </c>
+      <c r="C796" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A797" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B797" s="14">
+        <v>42</v>
+      </c>
+      <c r="C797" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A798" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B798" s="16">
+        <v>43139</v>
+      </c>
+      <c r="C798" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A799" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B799" s="14">
+        <v>40</v>
+      </c>
+      <c r="C799" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A800" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B800" s="15">
+        <v>194</v>
+      </c>
+      <c r="C800" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A801" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B801" s="14">
+        <v>22</v>
+      </c>
+      <c r="C801" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A802" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B802" s="16">
+        <v>1556</v>
+      </c>
+      <c r="C802" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A803" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B803" s="14">
+        <v>6</v>
+      </c>
+      <c r="C803" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A804" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B804" s="15">
+        <v>15</v>
+      </c>
+      <c r="C804" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A805" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B805" s="14">
+        <v>18</v>
+      </c>
+      <c r="C805" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A806" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B806" s="15">
+        <v>186</v>
+      </c>
+      <c r="C806" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A807" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B807" s="14">
+        <v>41</v>
+      </c>
+      <c r="C807" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A808" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B808" s="16">
+        <v>2863</v>
+      </c>
+      <c r="C808" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A809" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B809" s="14">
+        <v>108</v>
+      </c>
+      <c r="C809" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A810" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B810" s="15">
+        <v>85</v>
+      </c>
+      <c r="C810" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A811" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B811" s="14">
+        <v>6</v>
+      </c>
+      <c r="C811" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A812" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B812" s="15">
+        <v>2</v>
+      </c>
+      <c r="C812" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A813" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B813" s="14">
+        <v>2</v>
+      </c>
+      <c r="C813" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A814" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B814" s="15">
+        <v>30</v>
+      </c>
+      <c r="C814" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A815" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B815" s="14">
+        <v>24</v>
+      </c>
+      <c r="C815" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A816" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B816" s="16">
+        <v>6713</v>
+      </c>
+      <c r="C816" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A817" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B817" s="14">
+        <v>109</v>
+      </c>
+      <c r="C817" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A818" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B818" s="15">
+        <v>7</v>
+      </c>
+      <c r="C818" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A819" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B819" s="14">
+        <v>66</v>
+      </c>
+      <c r="C819" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A820" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B820" s="15">
+        <v>211</v>
+      </c>
+      <c r="C820" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A821" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B821" s="14">
+        <v>18</v>
+      </c>
+      <c r="C821" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A822" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B822" s="15">
+        <v>10</v>
+      </c>
+      <c r="C822" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A823" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B823" s="14">
+        <v>19</v>
+      </c>
+      <c r="C823" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A824" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B824" s="16">
+        <v>9967</v>
+      </c>
+      <c r="C824" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A825" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B825" s="14">
+        <v>9</v>
+      </c>
+      <c r="C825" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -10050,11 +10689,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10468,13 +11107,16 @@
         <v>62</v>
       </c>
       <c r="B32">
-        <v>5352</v>
+        <v>5752</v>
+      </c>
+      <c r="C32">
+        <v>1433</v>
       </c>
       <c r="D32">
         <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -10482,13 +11124,16 @@
         <v>63</v>
       </c>
       <c r="B33">
-        <v>7789</v>
+        <v>8129</v>
+      </c>
+      <c r="C33">
+        <v>1372</v>
       </c>
       <c r="D33">
         <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -10496,13 +11141,16 @@
         <v>64</v>
       </c>
       <c r="B34">
-        <v>5036</v>
+        <v>5237</v>
+      </c>
+      <c r="C34">
+        <v>916</v>
       </c>
       <c r="D34">
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -10510,13 +11158,16 @@
         <v>65</v>
       </c>
       <c r="B35">
-        <v>9228</v>
+        <v>9831</v>
+      </c>
+      <c r="C35">
+        <v>2181</v>
       </c>
       <c r="D35">
         <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -10524,13 +11175,16 @@
         <v>72</v>
       </c>
       <c r="B36">
-        <v>1718</v>
+        <v>1781</v>
+      </c>
+      <c r="C36">
+        <v>374</v>
       </c>
       <c r="D36">
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -10540,8 +11194,11 @@
       <c r="B37">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -10746,6 +11403,108 @@
       </c>
       <c r="E49" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>7815</v>
+      </c>
+      <c r="C50">
+        <v>2056</v>
+      </c>
+      <c r="D50">
+        <v>262</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>11160</v>
+      </c>
+      <c r="C51">
+        <v>1901</v>
+      </c>
+      <c r="D51">
+        <v>261</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>6538</v>
+      </c>
+      <c r="C52">
+        <v>1130</v>
+      </c>
+      <c r="D52">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>13869</v>
+      </c>
+      <c r="C53">
+        <v>2954</v>
+      </c>
+      <c r="D53">
+        <v>376</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>2354</v>
+      </c>
+      <c r="C54">
+        <v>499</v>
+      </c>
+      <c r="D54">
+        <v>67</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -10756,11 +11515,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11451,6 +12210,105 @@
         <v>110</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>757</v>
+      </c>
+      <c r="C50">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>17347</v>
+      </c>
+      <c r="C51">
+        <v>1532</v>
+      </c>
+      <c r="D51">
+        <v>67</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>14689</v>
+      </c>
+      <c r="C52">
+        <v>3195</v>
+      </c>
+      <c r="D52">
+        <v>259</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53">
+        <v>5015</v>
+      </c>
+      <c r="C53">
+        <v>1826</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54">
+        <v>3866</v>
+      </c>
+      <c r="C54">
+        <v>1922</v>
+      </c>
+      <c r="D54">
+        <v>514</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11459,11 +12317,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11840,6 +12698,57 @@
       </c>
       <c r="E28" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>18677</v>
+      </c>
+      <c r="C29">
+        <v>3455</v>
+      </c>
+      <c r="D29">
+        <v>401</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>23043</v>
+      </c>
+      <c r="C30">
+        <v>5093</v>
+      </c>
+      <c r="D30">
+        <v>694</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1155" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{48C0749F-AEDC-4A06-9748-318E319E2D5A}"/>
+  <xr:revisionPtr revIDLastSave="1223" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{872500CE-9B58-451D-B107-D71F2203D48A}"/>
   <bookViews>
-    <workbookView xWindow="4628" yWindow="285" windowWidth="14850" windowHeight="13230" firstSheet="1" activeTab="3" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="45375" yWindow="345" windowWidth="12330" windowHeight="14355" firstSheet="1" activeTab="1" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="133">
   <si>
     <t>County</t>
   </si>
@@ -435,6 +435,15 @@
   <si>
     <t>April 5, 2020 5:00PM</t>
   </si>
+  <si>
+    <t>April 6, 2020 3:00PM</t>
+  </si>
+  <si>
+    <t>April 6 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 6, 2020 5:00PM</t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -582,6 +591,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C1113"/>
+  <dimension ref="A1:C1171"/>
   <sheetViews>
-    <sheetView topLeftCell="A1095" workbookViewId="0">
-      <selection activeCell="D1113" sqref="D1113"/>
+    <sheetView topLeftCell="A1147" workbookViewId="0">
+      <selection activeCell="D1159" sqref="D1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13152,7 +13165,646 @@
         <v>127</v>
       </c>
     </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1114" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1114" s="17">
+        <v>319</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1115" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1115" s="18">
+        <v>17</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1116" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1116" s="17">
+        <v>72</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1117" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1117" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1118" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1118" s="17">
+        <v>11</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1119" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1119" s="18">
+        <v>19</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1120" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1120" s="17">
+        <v>47</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1121" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1121" s="18">
+        <v>46</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1122" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1122" s="17">
+        <v>36</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1123" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1123" s="18">
+        <v>59</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1124" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1124" s="17">
+        <v>15</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1125" s="18">
+        <v>29</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1126" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1126" s="19">
+        <v>1189</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1127" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1127" s="20">
+        <v>1059</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1128" s="17">
+        <v>7</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1129" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1129" s="18">
+        <v>10</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1130" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1130" s="17">
+        <v>11</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1131" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1131" s="18">
+        <v>23</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1132" s="17">
+        <v>24</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1133" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1133" s="18">
+        <v>2</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1134" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1134" s="17">
+        <v>25</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1135" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1135" s="18">
+        <v>33</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1136" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1136" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1137" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1137" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1138" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1138" s="17">
+        <v>82</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1139" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1139" s="18">
+        <v>574</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1140" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1140" s="17">
+        <v>15</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1141" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1141" s="20">
+        <v>15616</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1142" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1142" s="17">
+        <v>130</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1143" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1143" s="18">
+        <v>100</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1144" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1144" s="17">
+        <v>364</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1145" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1145" s="18">
+        <v>37</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1146" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1146" s="19">
+        <v>3397</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1147" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1147" s="18">
+        <v>13</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1148" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1148" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1149" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1149" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1150" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1150" s="17">
+        <v>345</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1151" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1151" s="18">
+        <v>78</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1152" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1152" s="19">
+        <v>5703</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1153" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1153" s="18">
+        <v>153</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1154" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1154" s="17">
+        <v>138</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1155" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1155" s="18">
+        <v>11</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1156" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1156" s="17">
+        <v>4</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1157" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1157" s="18">
+        <v>9</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1158" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1158" s="17">
+        <v>59</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1159" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1159" s="18">
+        <v>75</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1160" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1160" s="19">
+        <v>13487</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1161" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1161" s="18">
+        <v>253</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1162" s="17">
+        <v>8</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1163" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1163" s="18">
+        <v>95</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1164" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1164" s="17">
+        <v>372</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1165" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1165" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1166" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1166" s="17">
+        <v>19</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1167" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1167" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1168" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1168" s="19">
+        <v>14294</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1169" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1169" s="18">
+        <v>23</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1170" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1170" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1171" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1171" s="20">
+        <v>72181</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -13160,11 +13812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14488,6 +15140,108 @@
         <v>128</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86">
+        <v>13681</v>
+      </c>
+      <c r="C86">
+        <v>3845</v>
+      </c>
+      <c r="D86">
+        <v>679</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87">
+        <v>18434</v>
+      </c>
+      <c r="C87">
+        <v>3697</v>
+      </c>
+      <c r="D87">
+        <v>738</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>9690</v>
+      </c>
+      <c r="C88">
+        <v>1919</v>
+      </c>
+      <c r="D88">
+        <v>302</v>
+      </c>
+      <c r="E88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89">
+        <v>23083</v>
+      </c>
+      <c r="C89">
+        <v>4999</v>
+      </c>
+      <c r="D89">
+        <v>876</v>
+      </c>
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90">
+        <v>3851</v>
+      </c>
+      <c r="C90">
+        <v>864</v>
+      </c>
+      <c r="D90">
+        <v>142</v>
+      </c>
+      <c r="E90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91">
+        <v>37</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -14496,11 +15250,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15785,6 +16539,105 @@
         <v>129</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86">
+        <v>1204</v>
+      </c>
+      <c r="C86">
+        <v>109</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>26716</v>
+      </c>
+      <c r="C87">
+        <v>2324</v>
+      </c>
+      <c r="D87">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>24627</v>
+      </c>
+      <c r="C88">
+        <v>5714</v>
+      </c>
+      <c r="D88">
+        <v>652</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>8749</v>
+      </c>
+      <c r="C89">
+        <v>3435</v>
+      </c>
+      <c r="D89">
+        <v>682</v>
+      </c>
+      <c r="E89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>7345</v>
+      </c>
+      <c r="C90">
+        <v>3751</v>
+      </c>
+      <c r="D90">
+        <v>1250</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91">
+        <v>135</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15793,11 +16646,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16480,6 +17333,57 @@
       </c>
       <c r="E46" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>31319</v>
+      </c>
+      <c r="C47">
+        <v>6166</v>
+      </c>
+      <c r="D47">
+        <v>1017</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48">
+        <v>37361</v>
+      </c>
+      <c r="C48">
+        <v>9163</v>
+      </c>
+      <c r="D48">
+        <v>1719</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1223" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{872500CE-9B58-451D-B107-D71F2203D48A}"/>
+  <xr:revisionPtr revIDLastSave="1284" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12A1F253-A345-4684-BDF8-B093FD0F5DAB}"/>
   <bookViews>
-    <workbookView xWindow="45375" yWindow="345" windowWidth="12330" windowHeight="14355" firstSheet="1" activeTab="1" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="45375" yWindow="345" windowWidth="11460" windowHeight="14370" firstSheet="1" activeTab="1" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="136">
   <si>
     <t>County</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>April 6, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 7, 2020 2:00PM</t>
+  </si>
+  <si>
+    <t>April 7 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 7, 2020 5:00PM</t>
   </si>
 </sst>
 </file>
@@ -909,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C1171"/>
+  <dimension ref="A1:C1229"/>
   <sheetViews>
-    <sheetView topLeftCell="A1147" workbookViewId="0">
-      <selection activeCell="D1159" sqref="D1159"/>
+    <sheetView topLeftCell="A1201" workbookViewId="0">
+      <selection activeCell="D1229" sqref="D1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13803,6 +13812,644 @@
         <v>130</v>
       </c>
     </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1172" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1172" s="17">
+        <v>333</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1173" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1173" s="18">
+        <v>17</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1174" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1174" s="17">
+        <v>86</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1175" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1175" s="18">
+        <v>13</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1176" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1176" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1177" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1177" s="18">
+        <v>19</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1178" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1178" s="17">
+        <v>49</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1179" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1179" s="18">
+        <v>51</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1180" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1180" s="17">
+        <v>37</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1181" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1181" s="18">
+        <v>61</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1182" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1182" s="17">
+        <v>18</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1183" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1183" s="18">
+        <v>29</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1184" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1184" s="19">
+        <v>1249</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1185" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1185" s="20">
+        <v>1163</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1186" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1186" s="17">
+        <v>7</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1187" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1187" s="18">
+        <v>10</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1188" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1188" s="17">
+        <v>13</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1189" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1189" s="18">
+        <v>33</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1190" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1190" s="17">
+        <v>24</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1191" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1191" s="18">
+        <v>2</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1192" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1192" s="17">
+        <v>27</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1193" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1193" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1194" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1194" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1195" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1195" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1196" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1196" s="17">
+        <v>88</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1197" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1197" s="18">
+        <v>596</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1198" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1198" s="17">
+        <v>18</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1199" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1199" s="20">
+        <v>16610</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1200" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1200" s="17">
+        <v>143</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1201" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1201" s="18">
+        <v>118</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1202" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1202" s="17">
+        <v>364</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1203" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1203" s="18">
+        <v>37</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1204" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1204" s="19">
+        <v>3599</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1205" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1205" s="18">
+        <v>15</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1206" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1206" s="17">
+        <v>31</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1207" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1207" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1208" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1208" s="17">
+        <v>366</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1209" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1209" s="18">
+        <v>78</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1210" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1210" s="19">
+        <v>5990</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1211" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1211" s="18">
+        <v>155</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1212" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1212" s="17">
+        <v>145</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1213" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1213" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1214" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1214" s="17">
+        <v>4</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1215" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1215" s="18">
+        <v>10</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1216" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1216" s="17">
+        <v>60</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1217" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1217" s="18">
+        <v>75</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1218" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1218" s="19">
+        <v>14517</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1219" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1219" s="18">
+        <v>270</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1220" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1220" s="17">
+        <v>8</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1221" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1221" s="18">
+        <v>97</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1222" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1222" s="17">
+        <v>398</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1223" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1223" s="18">
+        <v>31</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1224" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1224" s="17">
+        <v>19</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1225" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1225" s="18">
+        <v>35</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1226" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1226" s="19">
+        <v>14294</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1227" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1227" s="18">
+        <v>23</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1228" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1228" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1229" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1229" s="20">
+        <v>76876</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13812,11 +14459,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15242,6 +15889,108 @@
         <v>131</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92">
+        <v>14942</v>
+      </c>
+      <c r="C92">
+        <v>4766</v>
+      </c>
+      <c r="D92">
+        <v>902</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93">
+        <v>20235</v>
+      </c>
+      <c r="C93">
+        <v>4754</v>
+      </c>
+      <c r="D93">
+        <v>946</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94">
+        <v>10253</v>
+      </c>
+      <c r="C94">
+        <v>2649</v>
+      </c>
+      <c r="D94">
+        <v>387</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95">
+        <v>24809</v>
+      </c>
+      <c r="C95">
+        <v>6078</v>
+      </c>
+      <c r="D95">
+        <v>1129</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96">
+        <v>4325</v>
+      </c>
+      <c r="C96">
+        <v>920</v>
+      </c>
+      <c r="D96">
+        <v>179</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97">
+        <v>37</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -15250,11 +15999,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16638,6 +17387,105 @@
         <v>132</v>
       </c>
     </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92">
+        <v>1374</v>
+      </c>
+      <c r="C92">
+        <v>150</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>28830</v>
+      </c>
+      <c r="C93">
+        <v>3206</v>
+      </c>
+      <c r="D93">
+        <v>201</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>26755</v>
+      </c>
+      <c r="C94">
+        <v>7247</v>
+      </c>
+      <c r="D94">
+        <v>853</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>9472</v>
+      </c>
+      <c r="C95">
+        <v>4171</v>
+      </c>
+      <c r="D95">
+        <v>879</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>8007</v>
+      </c>
+      <c r="C96">
+        <v>4403</v>
+      </c>
+      <c r="D96">
+        <v>1609</v>
+      </c>
+      <c r="E96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97">
+        <v>163</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16646,11 +17494,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17384,6 +18232,57 @@
       </c>
       <c r="E49" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>34118</v>
+      </c>
+      <c r="C50">
+        <v>7709</v>
+      </c>
+      <c r="D50">
+        <v>1309</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>40323</v>
+      </c>
+      <c r="C51">
+        <v>11462</v>
+      </c>
+      <c r="D51">
+        <v>2232</v>
+      </c>
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52">
+        <v>160</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/NYStateCases.xlsx
+++ b/NYStateCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/absamuel_microsoft_com/Documents/TSP Content/Power BI/Demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1284" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12A1F253-A345-4684-BDF8-B093FD0F5DAB}"/>
+  <xr:revisionPtr revIDLastSave="1481" documentId="8_{5EA3F8F1-1138-4AEF-8867-BFF6694B96FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89DCD790-A585-4A31-B58D-1AF97B0D85D9}"/>
   <bookViews>
-    <workbookView xWindow="45375" yWindow="345" windowWidth="11460" windowHeight="14370" firstSheet="1" activeTab="1" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
+    <workbookView xWindow="1785" yWindow="390" windowWidth="19515" windowHeight="13905" xr2:uid="{AA05621D-E4DE-4B4D-BE4C-352D11023E70}"/>
   </bookViews>
   <sheets>
     <sheet name="NYStateCaseTracker2" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="149">
   <si>
     <t>County</t>
   </si>
@@ -452,6 +452,45 @@
   </si>
   <si>
     <t>April 7, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 8, 2020 2:00PM</t>
+  </si>
+  <si>
+    <t>April 8 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 8, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 9, 2020 2:00PM</t>
+  </si>
+  <si>
+    <t>April 9 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 9, 2020 5:00PM</t>
+  </si>
+  <si>
+    <t>April 10, 2020 2:00PM</t>
+  </si>
+  <si>
+    <t>April 11, 2020 1:00PM</t>
+  </si>
+  <si>
+    <t>April 10 2020 4:00PM</t>
+  </si>
+  <si>
+    <t>April 12, 2020 1:00PM</t>
+  </si>
+  <si>
+    <t>April 13, 2020 1:00PM</t>
+  </si>
+  <si>
+    <t>April 14, 2020 2:00PM</t>
+  </si>
+  <si>
+    <t>April 15, 2020 2:00PM</t>
   </si>
 </sst>
 </file>
@@ -918,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606953F7-9E85-447E-AB81-936FD1DC86B2}">
-  <dimension ref="A1:C1229"/>
+  <dimension ref="A1:C1693"/>
   <sheetViews>
-    <sheetView topLeftCell="A1201" workbookViewId="0">
-      <selection activeCell="D1229" sqref="D1229"/>
+    <sheetView tabSelected="1" topLeftCell="A1664" workbookViewId="0">
+      <selection activeCell="D1693" sqref="D1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14450,6 +14489,5110 @@
         <v>133</v>
       </c>
     </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1230" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1230" s="17">
+        <v>342</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1231" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1231" s="18">
+        <v>21</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1232" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1232" s="17">
+        <v>93</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1233" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1233" s="18">
+        <v>13</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1234" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1234" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1235" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1235" s="18">
+        <v>21</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1236" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1236" s="17">
+        <v>55</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1237" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1237" s="18">
+        <v>53</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1238" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1238" s="17">
+        <v>39</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1239" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1239" s="18">
+        <v>63</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1240" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1240" s="17">
+        <v>19</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1241" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1241" s="18">
+        <v>37</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1242" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1242" s="19">
+        <v>1395</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1243" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1243" s="20">
+        <v>1335</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1244" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1244" s="17">
+        <v>7</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1245" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1245" s="18">
+        <v>10</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1246" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1246" s="17">
+        <v>14</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1247" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1247" s="18">
+        <v>47</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1248" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1248" s="17">
+        <v>25</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1249" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1249" s="18">
+        <v>2</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1250" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1250" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1251" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1251" s="18">
+        <v>40</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1252" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1252" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1253" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1253" s="18">
+        <v>29</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1254" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1254" s="17">
+        <v>96</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1255" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1255" s="18">
+        <v>627</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1256" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1256" s="17">
+        <v>18</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1257" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1257" s="20">
+        <v>18548</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1258" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1258" s="17">
+        <v>155</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1259" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1259" s="18">
+        <v>129</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1260" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1260" s="17">
+        <v>422</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1261" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1261" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1262" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1262" s="19">
+        <v>4075</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1263" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1263" s="18">
+        <v>16</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1264" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1264" s="17">
+        <v>36</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1265" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1265" s="18">
+        <v>38</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1266" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1266" s="17">
+        <v>403</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1267" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1267" s="18">
+        <v>75</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1268" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1268" s="19">
+        <v>6413</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1269" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1269" s="18">
+        <v>162</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1270" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1270" s="17">
+        <v>149</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1271" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1271" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1272" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1272" s="17">
+        <v>4</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1273" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1273" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1274" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1274" s="17">
+        <v>69</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1275" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1275" s="18">
+        <v>82</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1276" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1276" s="19">
+        <v>17008</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1277" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1277" s="18">
+        <v>279</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1278" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1278" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1279" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1279" s="18">
+        <v>103</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1280" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1280" s="17">
+        <v>422</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1281" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1281" s="18">
+        <v>33</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1282" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1282" s="17">
+        <v>20</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1283" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1283" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1284" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1284" s="19">
+        <v>15887</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1285" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1285" s="18">
+        <v>27</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1286" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1286" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1287" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1287" s="20">
+        <v>81803</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1288" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1288" s="17">
+        <v>379</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1289" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1289" s="18">
+        <v>22</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1290" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1290" s="17">
+        <v>105</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1291" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1291" s="18">
+        <v>17</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1292" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1292" s="17">
+        <v>16</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1293" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1293" s="18">
+        <v>22</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1294" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1294" s="17">
+        <v>59</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1295" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1295" s="18">
+        <v>55</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1296" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1296" s="17">
+        <v>40</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1297" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1297" s="18">
+        <v>70</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1298" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1298" s="17">
+        <v>20</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1299" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1299" s="18">
+        <v>37</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1300" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1300" s="19">
+        <v>1493</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1301" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1301" s="20">
+        <v>1432</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1302" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1302" s="17">
+        <v>8</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1303" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1303" s="18">
+        <v>11</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1304" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1304" s="17">
+        <v>15</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1305" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1305" s="18">
+        <v>56</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1306" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1306" s="17">
+        <v>31</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1307" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1307" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1308" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1308" s="17">
+        <v>32</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1309" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1309" s="18">
+        <v>42</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1310" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1310" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1311" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1311" s="18">
+        <v>32</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1312" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1312" s="17">
+        <v>102</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1313" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1313" s="18">
+        <v>698</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1314" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1314" s="17">
+        <v>28</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1315" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1315" s="20">
+        <v>20140</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1316" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1316" s="17">
+        <v>166</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1317" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1317" s="18">
+        <v>162</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1318" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1318" s="17">
+        <v>442</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1319" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1319" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1320" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1320" s="19">
+        <v>4309</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1321" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1321" s="18">
+        <v>22</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1322" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1322" s="17">
+        <v>38</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1323" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1323" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1324" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1324" s="17">
+        <v>438</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1325" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1325" s="18">
+        <v>99</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1326" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1326" s="19">
+        <v>6665</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1327" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1327" s="18">
+        <v>172</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1328" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1328" s="17">
+        <v>167</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1329" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1329" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1330" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1330" s="17">
+        <v>4</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1331" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1331" s="18">
+        <v>15</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1332" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1332" s="17">
+        <v>76</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1333" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1333" s="18">
+        <v>89</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1334" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1334" s="19">
+        <v>18803</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1335" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1335" s="18">
+        <v>296</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1336" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1336" s="17">
+        <v>17</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1337" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1337" s="18">
+        <v>105</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1338" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1338" s="17">
+        <v>462</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1339" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1339" s="18">
+        <v>40</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1340" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1340" s="17">
+        <v>25</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1341" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1341" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1342" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1342" s="19">
+        <v>17004</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1343" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1343" s="18">
+        <v>29</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1344" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1344" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1345" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1345" s="20">
+        <v>87028</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1346" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1346" s="17">
+        <v>426</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1347" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1347" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1348" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1348" s="17">
+        <v>112</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1349" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1349" s="18">
+        <v>18</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1350" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1350" s="17">
+        <v>27</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1351" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1351" s="18">
+        <v>23</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1352" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1352" s="17">
+        <v>59</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1353" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1353" s="18">
+        <v>60</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1354" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1354" s="17">
+        <v>43</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1355" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1355" s="18">
+        <v>74</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1356" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1356" s="17">
+        <v>20</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1357" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1357" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1358" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1358" s="19">
+        <v>1598</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1359" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1359" s="20">
+        <v>1506</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1360" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1360" s="17">
+        <v>10</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1361" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1361" s="18">
+        <v>11</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1362" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1362" s="17">
+        <v>18</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1363" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1363" s="18">
+        <v>65</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1364" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1364" s="17">
+        <v>34</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1365" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1365" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1366" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1366" s="17">
+        <v>36</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1367" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1367" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1368" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1368" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1369" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1369" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1370" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1370" s="17">
+        <v>105</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1371" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1371" s="18">
+        <v>742</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1372" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1372" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1373" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1373" s="20">
+        <v>21512</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1374" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1374" s="17">
+        <v>166</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1375" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1375" s="18">
+        <v>172</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1376" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1376" s="17">
+        <v>456</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1377" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1377" s="18">
+        <v>51</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1378" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1378" s="19">
+        <v>4640</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1379" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1379" s="18">
+        <v>24</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1380" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1380" s="17">
+        <v>42</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1381" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1381" s="18">
+        <v>41</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1382" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1382" s="17">
+        <v>487</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1383" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1383" s="18">
+        <v>112</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1384" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1384" s="19">
+        <v>7122</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1385" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1385" s="18">
+        <v>182</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1386" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1386" s="17">
+        <v>191</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1387" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1387" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1388" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1388" s="17">
+        <v>5</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1389" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1389" s="18">
+        <v>15</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1390" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1390" s="17">
+        <v>78</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1391" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1391" s="18">
+        <v>117</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1392" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1392" s="19">
+        <v>18980</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1393" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1393" s="18">
+        <v>318</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1394" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1394" s="17">
+        <v>18</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1395" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1395" s="18">
+        <v>112</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1396" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1396" s="17">
+        <v>530</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1397" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1397" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1398" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1398" s="17">
+        <v>26</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1399" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1399" s="18">
+        <v>41</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1400" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1400" s="19">
+        <v>18077</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1401" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1401" s="18">
+        <v>30</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1402" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1402" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1403" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1403" s="20">
+        <v>92384</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1404" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1404" s="17">
+        <v>446</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1405" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1405" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1406" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1406" s="17">
+        <v>117</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1407" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1407" s="18">
+        <v>19</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1408" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1408" s="17">
+        <v>28</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1409" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1409" s="18">
+        <v>23</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1410" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1410" s="17">
+        <v>60</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1411" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1411" s="18">
+        <v>61</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1412" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1412" s="17">
+        <v>43</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1413" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1413" s="18">
+        <v>77</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1414" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1414" s="17">
+        <v>21</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1415" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1415" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1416" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1416" s="19">
+        <v>1744</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1417" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1417" s="20">
+        <v>1558</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1418" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1418" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1419" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1419" s="18">
+        <v>11</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1420" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1420" s="17">
+        <v>21</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1421" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1421" s="18">
+        <v>67</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1422" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1422" s="17">
+        <v>37</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1423" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1423" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1424" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1424" s="17">
+        <v>37</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1425" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1425" s="18">
+        <v>44</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1426" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1426" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1427" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1427" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1428" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1428" s="17">
+        <v>105</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1429" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1429" s="18">
+        <v>767</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1430" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1430" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1431" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1431" s="20">
+        <v>22584</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1432" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1432" s="17">
+        <v>194</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1433" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1433" s="18">
+        <v>183</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1434" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1434" s="17">
+        <v>456</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1435" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1435" s="18">
+        <v>56</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1436" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1436" s="19">
+        <v>4847</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1437" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1437" s="18">
+        <v>24</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1438" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1438" s="17">
+        <v>42</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1439" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1439" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1440" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1440" s="17">
+        <v>494</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1441" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1441" s="18">
+        <v>119</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1442" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1442" s="19">
+        <v>7477</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1443" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1443" s="18">
+        <v>187</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1444" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1444" s="17">
+        <v>194</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1445" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1445" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1446" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1446" s="17">
+        <v>5</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1447" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1447" s="18">
+        <v>16</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1448" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1448" s="17">
+        <v>80</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1449" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1449" s="18">
+        <v>119</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1450" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1450" s="19">
+        <v>19883</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1451" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1451" s="18">
+        <v>340</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1452" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1452" s="17">
+        <v>19</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1453" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1453" s="18">
+        <v>108</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1454" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1454" s="17">
+        <v>589</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1455" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1455" s="18">
+        <v>44</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1456" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1456" s="17">
+        <v>31</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1457" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1457" s="18">
+        <v>42</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1458" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1458" s="19">
+        <v>18729</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1459" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1459" s="18">
+        <v>31</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1460" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1460" s="17">
+        <v>2</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1461" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1461" s="20">
+        <v>98308</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1462" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1462" s="17">
+        <v>478</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1463" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1463" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1464" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1464" s="17">
+        <v>126</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1465" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1465" s="18">
+        <v>28</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1466" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1466" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1467" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1467" s="18">
+        <v>24</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1468" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1468" s="17">
+        <v>60</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1469" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1469" s="18">
+        <v>63</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1470" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1470" s="17">
+        <v>43</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1471" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1471" s="18">
+        <v>79</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1472" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1472" s="17">
+        <v>23</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1473" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1473" s="18">
+        <v>39</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1474" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1474" s="19">
+        <v>1838</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1475" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1475" s="20">
+        <v>1571</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1476" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1476" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1477" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1477" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1478" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1478" s="17">
+        <v>21</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1479" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1479" s="18">
+        <v>69</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1480" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1480" s="17">
+        <v>44</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1481" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1481" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1482" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1482" s="17">
+        <v>37</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1483" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1483" s="18">
+        <v>46</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1484" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1484" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1485" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1485" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1486" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1486" s="17">
+        <v>110</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1487" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1487" s="18">
+        <v>798</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1488" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1488" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1489" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1489" s="20">
+        <v>22584</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1490" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1490" s="17">
+        <v>194</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1491" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1491" s="18">
+        <v>200</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1492" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1492" s="17">
+        <v>481</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1493" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1493" s="18">
+        <v>57</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1494" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1494" s="19">
+        <v>5027</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1495" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1495" s="18">
+        <v>25</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1496" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1496" s="17">
+        <v>42</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1497" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1497" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1498" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1498" s="17">
+        <v>497</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1499" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1499" s="18">
+        <v>119</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1500" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1500" s="19">
+        <v>7721</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1501" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1501" s="18">
+        <v>196</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1502" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1502" s="17">
+        <v>199</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1503" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1503" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1504" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1504" s="17">
+        <v>5</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1505" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1505" s="18">
+        <v>16</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1506" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1506" s="17">
+        <v>85</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1507" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1507" s="18">
+        <v>121</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1508" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1508" s="19">
+        <v>20816</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1509" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1509" s="18">
+        <v>358</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1510" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1510" s="17">
+        <v>19</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1511" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1511" s="18">
+        <v>109</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1512" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1512" s="17">
+        <v>612</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1513" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1513" s="18">
+        <v>46</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1514" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1514" s="17">
+        <v>34</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1515" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1515" s="18">
+        <v>42</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1516" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1516" s="19">
+        <v>19313</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1517" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1517" s="18">
+        <v>31</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1518" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1518" s="17">
+        <v>3</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1519" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1519" s="20">
+        <v>103208</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1520" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1520" s="17">
+        <v>499</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1521" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1521" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1522" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1522" s="17">
+        <v>133</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1523" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1523" s="18">
+        <v>28</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1524" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1524" s="17">
+        <v>30</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1525" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1525" s="18">
+        <v>24</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1526" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1526" s="17">
+        <v>60</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1527" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1527" s="18">
+        <v>65</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1528" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1528" s="17">
+        <v>44</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1529" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1529" s="18">
+        <v>80</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1530" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1530" s="17">
+        <v>24</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1531" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1531" s="18">
+        <v>42</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1532" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1532" s="19">
+        <v>1838</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1533" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1533" s="20">
+        <v>1624</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1534" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1534" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1535" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1535" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1536" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1536" s="17">
+        <v>21</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1537" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1537" s="18">
+        <v>71</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1538" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1538" s="17">
+        <v>45</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1539" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1539" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1540" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1540" s="17">
+        <v>38</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1541" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1541" s="18">
+        <v>46</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1542" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1542" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1543" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1543" s="18">
+        <v>35</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1544" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1544" s="17">
+        <v>110</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1545" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1545" s="18">
+        <v>823</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1546" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1546" s="17">
+        <v>29</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1547" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1547" s="20">
+        <v>24358</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1548" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1548" s="17">
+        <v>205</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1549" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1549" s="18">
+        <v>206</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1550" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1550" s="17">
+        <v>481</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1551" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1551" s="18">
+        <v>57</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1552" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1552" s="19">
+        <v>5182</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1553" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1553" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1554" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1554" s="17">
+        <v>44</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1555" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1555" s="18">
+        <v>43</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1556" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1556" s="17">
+        <v>502</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1557" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1557" s="18">
+        <v>119</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1558" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1558" s="19">
+        <v>7965</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1559" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1559" s="18">
+        <v>201</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1560" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1560" s="17">
+        <v>204</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1561" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1561" s="18">
+        <v>12</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1562" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1562" s="17">
+        <v>5</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1563" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1563" s="18">
+        <v>16</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1564" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1564" s="17">
+        <v>89</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1565" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1565" s="18">
+        <v>123</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1566" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1566" s="19">
+        <v>21643</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1567" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1567" s="18">
+        <v>380</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1568" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1568" s="17">
+        <v>20</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1569" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1569" s="18">
+        <v>110</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1570" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1570" s="17">
+        <v>630</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1571" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1571" s="18">
+        <v>48</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1572" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1572" s="17">
+        <v>37</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1573" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1573" s="18">
+        <v>42</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1574" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1574" s="19">
+        <v>19786</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1575" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1575" s="18">
+        <v>31</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1576" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1576" s="17">
+        <v>4</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1577" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1577" s="20">
+        <v>106863</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1578" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1578" s="17">
+        <v>535</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1579" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1579" s="18">
+        <v>28</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1580" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1580" s="17">
+        <v>146</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1581" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1581" s="18">
+        <v>32</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1582" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1582" s="17">
+        <v>33</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1583" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1583" s="18">
+        <v>24</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1584" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1584" s="17">
+        <v>64</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1585" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1585" s="18">
+        <v>68</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1586" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1586" s="17">
+        <v>45</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1587" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1587" s="18">
+        <v>84</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1588" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1588" s="17">
+        <v>25</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1589" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1589" s="18">
+        <v>45</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1590" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1590" s="19">
+        <v>1934</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1591" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1591" s="20">
+        <v>1730</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1592" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1592" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1593" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1593" s="18">
+        <v>13</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1594" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1594" s="17">
+        <v>22</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1595" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1595" s="18">
+        <v>76</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1596" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1596" s="17">
+        <v>66</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1597" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1597" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1598" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1598" s="17">
+        <v>39</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1599" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1599" s="18">
+        <v>47</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1600" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1600" s="17">
+        <v>7</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1601" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1601" s="18">
+        <v>37</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1602" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1602" s="17">
+        <v>110</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1603" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1603" s="18">
+        <v>850</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1604" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1604" s="17">
+        <v>32</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1605" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1605" s="20">
+        <v>25520</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1606" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1606" s="17">
+        <v>216</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1607" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1607" s="18">
+        <v>229</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1608" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1608" s="17">
+        <v>537</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1609" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1609" s="18">
+        <v>61</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1610" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1610" s="19">
+        <v>5830</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1611" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1611" s="18">
+        <v>31</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1612" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1612" s="17">
+        <v>47</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1613" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1613" s="18">
+        <v>44</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1614" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1614" s="17">
+        <v>558</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1615" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1615" s="18">
+        <v>140</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1616" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1616" s="19">
+        <v>8335</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1617" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1617" s="18">
+        <v>224</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1618" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1618" s="17">
+        <v>235</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1619" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1619" s="18">
+        <v>20</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1620" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1620" s="17">
+        <v>8</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1621" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1621" s="18">
+        <v>18</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1622" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1622" s="17">
+        <v>92</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1623" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1623" s="18">
+        <v>147</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1624" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1624" s="19">
+        <v>22634</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1625" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1625" s="18">
+        <v>415</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1626" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1626" s="17">
+        <v>24</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1627" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1627" s="18">
+        <v>113</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1628" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1628" s="17">
+        <v>716</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1629" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1629" s="18">
+        <v>77</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1630" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1630" s="17">
+        <v>40</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1631" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1631" s="18">
+        <v>48</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1632" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1632" s="19">
+        <v>20191</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1633" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1633" s="18">
+        <v>32</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1634" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1634" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1635" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1635" s="20">
+        <v>110425</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1636" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1636" s="17">
+        <v>548</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1637" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1637" s="18">
+        <v>28</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1638" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1638" s="17">
+        <v>153</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1639" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1639" s="18">
+        <v>32</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1640" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1640" s="17">
+        <v>36</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1641" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1641" s="18">
+        <v>26</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1642" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1642" s="17">
+        <v>69</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1643" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1643" s="18">
+        <v>71</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1644" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1644" s="17">
+        <v>45</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1645" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1645" s="18">
+        <v>100</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1646" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1646" s="17">
+        <v>27</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1647" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1647" s="18">
+        <v>46</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1648" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1648" s="19">
+        <v>2048</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1649" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1649" s="20">
+        <v>1812</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1650" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1650" s="17">
+        <v>12</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1651" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1651" s="18">
+        <v>13</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1652" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1652" s="17">
+        <v>24</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1653" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1653" s="18">
+        <v>76</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1654" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1654" s="17">
+        <v>73</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1655" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1655" s="18">
+        <v>3</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1656" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1656" s="17">
+        <v>40</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1657" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1657" s="18">
+        <v>47</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1658" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1658" s="17">
+        <v>7</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1659" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1659" s="18">
+        <v>38</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1660" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1660" s="17">
+        <v>110</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1661" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1661" s="18">
+        <v>884</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1662" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1662" s="17">
+        <v>32</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1663" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1663" s="20">
+        <v>26715</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1664" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1664" s="17">
+        <v>229</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1665" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1665" s="18">
+        <v>246</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1666" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1666" s="17">
+        <v>563</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1667" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1667" s="18">
+        <v>62</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1668" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1668" s="19">
+        <v>5964</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1669" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1669" s="18">
+        <v>33</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1670" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1670" s="17">
+        <v>50</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1671" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1671" s="18">
+        <v>44</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1672" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1672" s="17">
+        <v>571</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1673" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1673" s="18">
+        <v>146</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1674" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1674" s="19">
+        <v>8474</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1675" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1675" s="18">
+        <v>227</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1676" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1676" s="17">
+        <v>237</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1677" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1677" s="18">
+        <v>20</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1678" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1678" s="17">
+        <v>8</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1679" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1679" s="18">
+        <v>18</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1680" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1680" s="17">
+        <v>92</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1681" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1681" s="18">
+        <v>151</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1682" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1682" s="19">
+        <v>23278</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1683" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1683" s="18">
+        <v>424</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1684" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1684" s="17">
+        <v>25</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1685" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1685" s="18">
+        <v>116</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1686" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1686" s="17">
+        <v>733</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1687" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1687" s="18">
+        <v>77</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1688" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1688" s="17">
+        <v>42</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1689" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1689" s="18">
+        <v>48</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1690" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1690" s="19">
+        <v>20947</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1691" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1691" s="18">
+        <v>34</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1692" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1692" s="17">
+        <v>6</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1693" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1693" s="20">
+        <v>118302</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14459,11 +19602,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511E2D5-5ECF-432B-8F8E-C5AD9460B572}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15991,6 +21134,294 @@
         <v>134</v>
       </c>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98">
+        <v>16420</v>
+      </c>
+      <c r="C98">
+        <v>5104</v>
+      </c>
+      <c r="D98">
+        <v>1001</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99">
+        <v>21580</v>
+      </c>
+      <c r="C99">
+        <v>5114</v>
+      </c>
+      <c r="D99">
+        <v>1185</v>
+      </c>
+      <c r="E99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100">
+        <v>10861</v>
+      </c>
+      <c r="C100">
+        <v>2809</v>
+      </c>
+      <c r="D100">
+        <v>500</v>
+      </c>
+      <c r="E100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101">
+        <v>26204</v>
+      </c>
+      <c r="C101">
+        <v>6456</v>
+      </c>
+      <c r="D101">
+        <v>1344</v>
+      </c>
+      <c r="E101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102">
+        <v>5102</v>
+      </c>
+      <c r="C102">
+        <v>981</v>
+      </c>
+      <c r="D102">
+        <v>229</v>
+      </c>
+      <c r="E102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104">
+        <v>18737</v>
+      </c>
+      <c r="C104">
+        <v>5441</v>
+      </c>
+      <c r="D104">
+        <v>1135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105">
+        <v>23408</v>
+      </c>
+      <c r="C105">
+        <v>5402</v>
+      </c>
+      <c r="D105">
+        <v>1341</v>
+      </c>
+      <c r="E105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106">
+        <v>11485</v>
+      </c>
+      <c r="C106">
+        <v>2900</v>
+      </c>
+      <c r="D106">
+        <v>554</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107">
+        <v>27759</v>
+      </c>
+      <c r="C107">
+        <v>6776</v>
+      </c>
+      <c r="D107">
+        <v>1493</v>
+      </c>
+      <c r="E107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108">
+        <v>6298</v>
+      </c>
+      <c r="C108">
+        <v>1042</v>
+      </c>
+      <c r="D108">
+        <v>254</v>
+      </c>
+      <c r="E108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109">
+        <v>38</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110">
+        <v>20544</v>
+      </c>
+      <c r="C110">
+        <v>5915</v>
+      </c>
+      <c r="E110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111">
+        <v>24846</v>
+      </c>
+      <c r="C111">
+        <v>6646</v>
+      </c>
+      <c r="E111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112">
+        <v>12200</v>
+      </c>
+      <c r="C112">
+        <v>3510</v>
+      </c>
+      <c r="E112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113">
+        <v>29754</v>
+      </c>
+      <c r="C113">
+        <v>8637</v>
+      </c>
+      <c r="E113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114">
+        <v>7027</v>
+      </c>
+      <c r="C114">
+        <v>1200</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -15999,11 +21430,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2B096B-2D61-4320-AC95-E467D8872FA8}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17486,6 +22917,291 @@
         <v>135</v>
       </c>
     </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98">
+        <v>1523</v>
+      </c>
+      <c r="C98">
+        <v>159</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>30877</v>
+      </c>
+      <c r="C99">
+        <v>3338</v>
+      </c>
+      <c r="D99">
+        <v>219</v>
+      </c>
+      <c r="E99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100">
+        <v>28700</v>
+      </c>
+      <c r="C100">
+        <v>7708</v>
+      </c>
+      <c r="D100">
+        <v>1020</v>
+      </c>
+      <c r="E100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101">
+        <v>10219</v>
+      </c>
+      <c r="C101">
+        <v>4473</v>
+      </c>
+      <c r="D101">
+        <v>1064</v>
+      </c>
+      <c r="E101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102">
+        <v>8713</v>
+      </c>
+      <c r="C102">
+        <v>4796</v>
+      </c>
+      <c r="D102">
+        <v>1952</v>
+      </c>
+      <c r="E102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103">
+        <v>172</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104">
+        <v>1726</v>
+      </c>
+      <c r="C104">
+        <v>160</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105">
+        <v>33906</v>
+      </c>
+      <c r="C105">
+        <v>3461</v>
+      </c>
+      <c r="D105">
+        <v>241</v>
+      </c>
+      <c r="E105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106">
+        <v>31472</v>
+      </c>
+      <c r="C106">
+        <v>8080</v>
+      </c>
+      <c r="D106">
+        <v>1143</v>
+      </c>
+      <c r="E106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107">
+        <v>10990</v>
+      </c>
+      <c r="C107">
+        <v>4746</v>
+      </c>
+      <c r="D107">
+        <v>1187</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108">
+        <v>9424</v>
+      </c>
+      <c r="C108">
+        <v>5124</v>
+      </c>
+      <c r="D108">
+        <v>2204</v>
+      </c>
+      <c r="E108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109">
+        <v>207</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110">
+        <v>1867</v>
+      </c>
+      <c r="C110">
+        <v>183</v>
+      </c>
+      <c r="E110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111">
+        <v>36475</v>
+      </c>
+      <c r="C111">
+        <v>4130</v>
+      </c>
+      <c r="E111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112">
+        <v>33914</v>
+      </c>
+      <c r="C112">
+        <v>9567</v>
+      </c>
+      <c r="E112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113">
+        <v>11736</v>
+      </c>
+      <c r="C113">
+        <v>5729</v>
+      </c>
+      <c r="E113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114">
+        <v>10203</v>
+      </c>
+      <c r="C114">
+        <v>6311</v>
+      </c>
+      <c r="E114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115">
+        <v>214</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17494,11 +23210,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B468A1B-381A-4C47-8DBB-5D8AA7713399}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18283,6 +23999,150 @@
       </c>
       <c r="E52" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>36580</v>
+      </c>
+      <c r="C53">
+        <v>8159</v>
+      </c>
+      <c r="D53">
+        <v>1526</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>43241</v>
+      </c>
+      <c r="C54">
+        <v>12128</v>
+      </c>
+      <c r="D54">
+        <v>2527</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55">
+        <v>383</v>
+      </c>
+      <c r="C55">
+        <v>187</v>
+      </c>
+      <c r="D55">
+        <v>207</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>40135</v>
+      </c>
+      <c r="C56">
+        <v>8618</v>
+      </c>
+      <c r="D56">
+        <v>1724</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>47193</v>
+      </c>
+      <c r="C57">
+        <v>12769</v>
+      </c>
+      <c r="D57">
+        <v>2848</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>397</v>
+      </c>
+      <c r="C58">
+        <v>184</v>
+      </c>
+      <c r="D58">
+        <v>206</v>
+      </c>
+      <c r="E58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>43185</v>
+      </c>
+      <c r="C59">
+        <v>10511</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>50807</v>
+      </c>
+      <c r="C60">
+        <v>15208</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61">
+        <v>417</v>
+      </c>
+      <c r="C61">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
